--- a/output/result.xlsx
+++ b/output/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>重症度と死亡の関係</t>
     <rPh sb="0" eb="3">
@@ -58,27 +58,6 @@
       <t>ワリアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">軽度 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 生存 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">中等度 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 不明 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">重度 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 死亡 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> その他 </t>
   </si>
 </sst>
 </file>
@@ -501,88 +480,40 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2">
-        <v>41.666666667000001</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>12.5</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4.1666666667000003</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1">
-        <v>20.833333332999999</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4.1666666667000003</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1">
-        <v>16.666666667000001</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" s="1"/>

--- a/output/result.xlsx
+++ b/output/result.xlsx
@@ -147,7 +147,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -455,7 +457,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
